--- a/data/trans_orig/P17A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>49410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37552</v>
+        <v>37954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61765</v>
+        <v>62418</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1809825086327657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1375487956554545</v>
+        <v>0.1390216590001817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2262383372327685</v>
+        <v>0.2286281409602761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -765,19 +765,19 @@
         <v>66192</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52323</v>
+        <v>52912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80808</v>
+        <v>80609</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2537666670923805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2005941268948309</v>
+        <v>0.2028541129255058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3098028022271011</v>
+        <v>0.3090368471654347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -786,19 +786,19 @@
         <v>115602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96491</v>
+        <v>97306</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137837</v>
+        <v>134383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2165448407046739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1807453494549987</v>
+        <v>0.1822736637593003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2581953110225809</v>
+        <v>0.2517251406139306</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>223600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211245</v>
+        <v>210592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235458</v>
+        <v>235056</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8190174913672343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7737616627672312</v>
+        <v>0.7713718590397239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8624512043445455</v>
+        <v>0.8609783409998185</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -836,19 +836,19 @@
         <v>194646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180030</v>
+        <v>180229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208515</v>
+        <v>207926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7462333329076194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6901971977728992</v>
+        <v>0.6909631528345653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7994058731051692</v>
+        <v>0.7971458870744943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>400</v>
@@ -857,19 +857,19 @@
         <v>418246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396011</v>
+        <v>399465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437357</v>
+        <v>436542</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7834551592953262</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7418046889774191</v>
+        <v>0.7482748593860694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8192546505450016</v>
+        <v>0.8177263362406998</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>89064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71527</v>
+        <v>72197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107356</v>
+        <v>104717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1806305774938659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1450627850198951</v>
+        <v>0.146421861490957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2177267846541707</v>
+        <v>0.2123758611971905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -982,19 +982,19 @@
         <v>132251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113137</v>
+        <v>114170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153012</v>
+        <v>153257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2624286690752419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2245011222323814</v>
+        <v>0.2265499479074479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3036264779007122</v>
+        <v>0.3041111345284194</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>214</v>
@@ -1003,19 +1003,19 @@
         <v>221315</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196750</v>
+        <v>196547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249104</v>
+        <v>248644</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2219756848818181</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1973370673927449</v>
+        <v>0.1971332780919194</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2498477959775176</v>
+        <v>0.249386105940697</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>404011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385719</v>
+        <v>388358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421548</v>
+        <v>420878</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8193694225061341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7822732153458289</v>
+        <v>0.7876241388028096</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8549372149801047</v>
+        <v>0.853578138509043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -1053,19 +1053,19 @@
         <v>371698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350937</v>
+        <v>350692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>390812</v>
+        <v>389779</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7375713309247581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6963735220992882</v>
+        <v>0.6958888654715807</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7754988777676188</v>
+        <v>0.7734500520925526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -1074,19 +1074,19 @@
         <v>775709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>747920</v>
+        <v>748380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>800274</v>
+        <v>800477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7780243151181819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7501522040224824</v>
+        <v>0.7506138940593029</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.802662932607255</v>
+        <v>0.8028667219080805</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>54542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41942</v>
+        <v>42072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70376</v>
+        <v>69746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.171061780869405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1315430608727786</v>
+        <v>0.1319513800865085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2207204159110372</v>
+        <v>0.2187458812196077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>100514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85538</v>
+        <v>84363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118187</v>
+        <v>116317</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3014822062290121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2565621949269373</v>
+        <v>0.253038153684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3544890823653108</v>
+        <v>0.348882211836354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -1220,19 +1220,19 @@
         <v>155057</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134774</v>
+        <v>133349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176752</v>
+        <v>176757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2377270528412596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2066304532903984</v>
+        <v>0.2044465091150454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2709895452552907</v>
+        <v>0.270997443113363</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>264304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248470</v>
+        <v>249100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276904</v>
+        <v>276774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8289382191305951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7792795840889628</v>
+        <v>0.7812541187803926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8684569391272214</v>
+        <v>0.8680486199134916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -1270,19 +1270,19 @@
         <v>232886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215213</v>
+        <v>217083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247862</v>
+        <v>249037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6985177937709879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.645510917634689</v>
+        <v>0.6511177881636461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7434378050730627</v>
+        <v>0.746961846316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -1291,19 +1291,19 @@
         <v>497189</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>475494</v>
+        <v>475489</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>517472</v>
+        <v>518897</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7622729471587404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7290104547447094</v>
+        <v>0.729002556886637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7933695467096019</v>
+        <v>0.7955534908849546</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>52385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40730</v>
+        <v>41648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65867</v>
+        <v>66582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1460526582862794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1135581299620265</v>
+        <v>0.1161183921638093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1836426103574469</v>
+        <v>0.1856363044289387</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -1416,19 +1416,19 @@
         <v>119921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104689</v>
+        <v>103608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138349</v>
+        <v>137284</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3228390998222179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2818347826259575</v>
+        <v>0.2789245011242217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.372451099641494</v>
+        <v>0.3695841535288628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -1437,19 +1437,19 @@
         <v>172305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150257</v>
+        <v>149880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191839</v>
+        <v>194119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2359936840493124</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2057955186701203</v>
+        <v>0.2052796970799834</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2627471687687478</v>
+        <v>0.2658704691386075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>306286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292804</v>
+        <v>292089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317941</v>
+        <v>317023</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8539473417137207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.816357389642553</v>
+        <v>0.8143636955710625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8864418700379734</v>
+        <v>0.8838816078361909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>260</v>
@@ -1487,19 +1487,19 @@
         <v>251535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233107</v>
+        <v>234172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>266767</v>
+        <v>267848</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6771609001777822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6275489003585056</v>
+        <v>0.6304158464711372</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7181652173740425</v>
+        <v>0.721075498875778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>567</v>
@@ -1508,19 +1508,19 @@
         <v>557822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538288</v>
+        <v>536008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>579870</v>
+        <v>580247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7640063159506876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7372528312312523</v>
+        <v>0.7341295308613923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7942044813298798</v>
+        <v>0.7947203029200164</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>44716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34473</v>
+        <v>34729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56372</v>
+        <v>57586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2199404622514143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1695604879274913</v>
+        <v>0.1708203239245811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2772742708657079</v>
+        <v>0.2832442036084635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1633,19 +1633,19 @@
         <v>76123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61690</v>
+        <v>61357</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91548</v>
+        <v>89806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3665604882461358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2970626610680005</v>
+        <v>0.2954573689864964</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.440837537899998</v>
+        <v>0.4324495104313751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -1654,19 +1654,19 @@
         <v>120839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103252</v>
+        <v>103584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139633</v>
+        <v>141601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.294028204967285</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2512360363471152</v>
+        <v>0.2520436600884488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3397584098940194</v>
+        <v>0.3445471555481403</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>158592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146936</v>
+        <v>145722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168835</v>
+        <v>168579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7800595377485857</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7227257291342922</v>
+        <v>0.7167557963915366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8304395120725088</v>
+        <v>0.8291796760754191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1704,19 +1704,19 @@
         <v>131545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116120</v>
+        <v>117862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145978</v>
+        <v>146311</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6334395117538641</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5591624621000021</v>
+        <v>0.5675504895686249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7029373389319995</v>
+        <v>0.7045426310135033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -1725,19 +1725,19 @@
         <v>290137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271343</v>
+        <v>269375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>307724</v>
+        <v>307392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.705971795032715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6602415901059806</v>
+        <v>0.6554528444518596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7487639636528848</v>
+        <v>0.747956339911551</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>45883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34110</v>
+        <v>34729</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58775</v>
+        <v>58914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1694263522216276</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1259534504427487</v>
+        <v>0.1282423567677426</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2170350648250865</v>
+        <v>0.2175453221342169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -1850,19 +1850,19 @@
         <v>86563</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70804</v>
+        <v>72439</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101550</v>
+        <v>103553</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3112180369197008</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2545574214755373</v>
+        <v>0.2604354444068041</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3650968975836925</v>
+        <v>0.3723000728498946</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -1871,19 +1871,19 @@
         <v>132446</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112169</v>
+        <v>114059</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153281</v>
+        <v>153766</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2412692283434724</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2043318542554793</v>
+        <v>0.2077755483946896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2792223879167442</v>
+        <v>0.2801059366983932</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>224928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212036</v>
+        <v>211897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236701</v>
+        <v>236082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8305736477783724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7829649351749138</v>
+        <v>0.782454677865783</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8740465495572514</v>
+        <v>0.8717576432322578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -1921,19 +1921,19 @@
         <v>191581</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176594</v>
+        <v>174591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207340</v>
+        <v>205705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6887819630802993</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6349031024163077</v>
+        <v>0.6276999271501055</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7454425785244628</v>
+        <v>0.7395645555931957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>405</v>
@@ -1942,19 +1942,19 @@
         <v>416509</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>395674</v>
+        <v>395189</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436786</v>
+        <v>434896</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7587307716565276</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7207776120832557</v>
+        <v>0.7198940633016068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7956681457445206</v>
+        <v>0.7922244516053104</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>143255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122919</v>
+        <v>122983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165662</v>
+        <v>164725</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2339398838066558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2007313614426365</v>
+        <v>0.2008344069069754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2705317581123207</v>
+        <v>0.2690015122626191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -2067,19 +2067,19 @@
         <v>215064</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193892</v>
+        <v>190975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238729</v>
+        <v>239194</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3369751218541583</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3038014569606751</v>
+        <v>0.2992305473403318</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3740553314931575</v>
+        <v>0.3747839185300226</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>354</v>
@@ -2088,19 +2088,19 @@
         <v>358319</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>329143</v>
+        <v>325068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>392171</v>
+        <v>388234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2865228600863696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2631932485678865</v>
+        <v>0.259934507372226</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3135923491955259</v>
+        <v>0.3104437581433124</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>469103</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>446696</v>
+        <v>447633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>489439</v>
+        <v>489375</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7660601161933442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7294682418876792</v>
+        <v>0.7309984877373809</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7992686385573634</v>
+        <v>0.799165593093025</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>410</v>
@@ -2138,19 +2138,19 @@
         <v>423155</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>399490</v>
+        <v>399025</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>444327</v>
+        <v>447244</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6630248781458417</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6259446685068425</v>
+        <v>0.6252160814699773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6961985430393248</v>
+        <v>0.7007694526596682</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>862</v>
@@ -2159,19 +2159,19 @@
         <v>892258</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>858406</v>
+        <v>862343</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>921434</v>
+        <v>925509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7134771399136304</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6864076508044742</v>
+        <v>0.6895562418566877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7368067514321136</v>
+        <v>0.7400654926277741</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>180047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155790</v>
+        <v>158280</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205423</v>
+        <v>204466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2420652732127991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.209453540431714</v>
+        <v>0.212800608299904</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.276182587537482</v>
+        <v>0.2748958093090431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -2284,19 +2284,19 @@
         <v>251742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>226725</v>
+        <v>228136</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280019</v>
+        <v>281648</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.321300174745173</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2893705573701979</v>
+        <v>0.291171768600457</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3573901400848723</v>
+        <v>0.3594687363989855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>415</v>
@@ -2305,19 +2305,19 @@
         <v>431789</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>396080</v>
+        <v>396537</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>470015</v>
+        <v>468834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2827129333628389</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.259332393357755</v>
+        <v>0.2596315601110566</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3077411734100895</v>
+        <v>0.3069677563952411</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>563748</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>538372</v>
+        <v>539329</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>588005</v>
+        <v>585515</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7579347267872009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.723817412462518</v>
+        <v>0.7251041906909569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.790546459568286</v>
+        <v>0.787199391700096</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>509</v>
@@ -2355,19 +2355,19 @@
         <v>531769</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>503492</v>
+        <v>501863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>556786</v>
+        <v>555375</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.678699825254827</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6426098599151278</v>
+        <v>0.6405312636010145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7106294426298021</v>
+        <v>0.7088282313995431</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1066</v>
@@ -2376,19 +2376,19 @@
         <v>1095517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1057291</v>
+        <v>1058472</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1131226</v>
+        <v>1130769</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.717287066637161</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6922588265899104</v>
+        <v>0.6930322436047588</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7406676066422447</v>
+        <v>0.7403684398889434</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>659302</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2013827458166282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1022</v>
@@ -2501,19 +2501,19 @@
         <v>1048370</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3104271149634787</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1683</v>
@@ -2522,19 +2522,19 @@
         <v>1707672</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2567518236966544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2614572</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2568287</v>
+        <v>2565433</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2655162</v>
+        <v>2659073</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7986172541833718</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7844795589924289</v>
+        <v>0.7836077546472908</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.811015403129725</v>
+        <v>0.8122100330797343</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2273</v>
@@ -2572,19 +2572,19 @@
         <v>2328815</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2269734</v>
+        <v>2275106</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2379460</v>
+        <v>2384371</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6895728850365213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6720786482235538</v>
+        <v>0.6736693037173868</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7045691584982411</v>
+        <v>0.7060232087735783</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4823</v>
@@ -2593,19 +2593,19 @@
         <v>4943387</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4868543</v>
+        <v>4869795</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5012076</v>
+        <v>5009639</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7432481763033456</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7319950948921027</v>
+        <v>0.7321834738640252</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7535756986002703</v>
+        <v>0.7532092738657721</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>61764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48260</v>
+        <v>48233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76806</v>
+        <v>78437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2095560333362808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1637373879730041</v>
+        <v>0.1636487047053392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2605917690032261</v>
+        <v>0.2661244133552573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2962,19 +2962,19 @@
         <v>95701</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77540</v>
+        <v>78800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112509</v>
+        <v>114338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3331673214053195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2699444562941944</v>
+        <v>0.2743297087283367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3916831945973774</v>
+        <v>0.3980513580045578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -2983,19 +2983,19 @@
         <v>157465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135968</v>
+        <v>135708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179739</v>
+        <v>179349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2705659298153197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2336283754685336</v>
+        <v>0.2331816253328894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3088389494000969</v>
+        <v>0.3081693917819226</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>232974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217932</v>
+        <v>216301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246478</v>
+        <v>246505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7904439666637192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7394082309967739</v>
+        <v>0.7338755866447427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8362626120269959</v>
+        <v>0.8363512952946608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -3033,19 +3033,19 @@
         <v>191544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174736</v>
+        <v>172907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>209705</v>
+        <v>208445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6668326785946805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6083168054026226</v>
+        <v>0.6019486419954422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7300555437058055</v>
+        <v>0.7256702912716633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>393</v>
@@ -3054,19 +3054,19 @@
         <v>424518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402244</v>
+        <v>402634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>446015</v>
+        <v>446275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7294340701846802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.691161050599903</v>
+        <v>0.6918306082180775</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7663716245314665</v>
+        <v>0.7668183746671106</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>103721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85421</v>
+        <v>84478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124627</v>
+        <v>126066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.208029607149764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1713260540479125</v>
+        <v>0.1694339410768184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2499599508499198</v>
+        <v>0.2528446313804645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -3179,19 +3179,19 @@
         <v>155421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135947</v>
+        <v>133682</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180075</v>
+        <v>178423</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2973115752934206</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.260057645281614</v>
+        <v>0.2557260939392214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3444724329335132</v>
+        <v>0.3413114631194891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -3200,19 +3200,19 @@
         <v>259143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226689</v>
+        <v>230571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287150</v>
+        <v>285579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2537269164983507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2219510582662674</v>
+        <v>0.2257525203490816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2811487159742361</v>
+        <v>0.27961081169223</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>394868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373962</v>
+        <v>372523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413168</v>
+        <v>414111</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7919703928502361</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7500400491500803</v>
+        <v>0.7471553686195357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8286739459520874</v>
+        <v>0.8305660589231817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -3250,19 +3250,19 @@
         <v>367335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342681</v>
+        <v>344333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386809</v>
+        <v>389074</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7026884247065794</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6555275670664868</v>
+        <v>0.6586885368805101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7399423547183861</v>
+        <v>0.7442739060607786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>712</v>
@@ -3271,19 +3271,19 @@
         <v>762202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734195</v>
+        <v>735766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>794656</v>
+        <v>790774</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7462730835016492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7188512840257639</v>
+        <v>0.7203891883077701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7780489417337326</v>
+        <v>0.7742474796509187</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>86327</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70391</v>
+        <v>70767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103014</v>
+        <v>104940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.266404312307875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2172257508897324</v>
+        <v>0.2183867050718607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3178997005216633</v>
+        <v>0.3238436212237727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -3396,19 +3396,19 @@
         <v>143305</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126092</v>
+        <v>125198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162621</v>
+        <v>161768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.420225978163824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3697481101640155</v>
+        <v>0.3671291644437556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4768651408177288</v>
+        <v>0.474364648682345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -3417,19 +3417,19 @@
         <v>229633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204203</v>
+        <v>205187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255106</v>
+        <v>254469</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3452780857985835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3070415887856737</v>
+        <v>0.3085212954462874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3835793318993334</v>
+        <v>0.3826216509588378</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>237719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221032</v>
+        <v>219106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>253655</v>
+        <v>253279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7335956876921249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6821002994783368</v>
+        <v>0.6761563787762273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7827742491102677</v>
+        <v>0.7816132949281394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -3467,19 +3467,19 @@
         <v>197715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178399</v>
+        <v>179252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214928</v>
+        <v>215822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.579774021836176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5231348591822715</v>
+        <v>0.525635351317655</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6302518898359845</v>
+        <v>0.6328708355562445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>418</v>
@@ -3488,19 +3488,19 @@
         <v>435433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>409960</v>
+        <v>410597</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>460863</v>
+        <v>459879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6547219142014165</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6164206681006666</v>
+        <v>0.6173783490411623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6929584112143263</v>
+        <v>0.6914787045537127</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>70876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56683</v>
+        <v>55558</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88427</v>
+        <v>86162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1900182316087486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1519670485882054</v>
+        <v>0.1489505074600691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2370714983194824</v>
+        <v>0.2309997316766852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -3613,19 +3613,19 @@
         <v>113826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95899</v>
+        <v>98180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131358</v>
+        <v>133957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2980584500592669</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2511172103973882</v>
+        <v>0.2570884499999539</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3439685204344059</v>
+        <v>0.350774301470696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -3634,19 +3634,19 @@
         <v>184702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159229</v>
+        <v>162169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208912</v>
+        <v>209671</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.244674672682596</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2109311888594016</v>
+        <v>0.2148255721386639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2767461669401595</v>
+        <v>0.2777519365346318</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>302121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284570</v>
+        <v>286835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316314</v>
+        <v>317439</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8099817683912514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7629285016805177</v>
+        <v>0.7690002683233151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8480329514117948</v>
+        <v>0.8510494925399312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -3684,19 +3684,19 @@
         <v>268064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250532</v>
+        <v>247933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>285991</v>
+        <v>283710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7019415499407331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6560314795655942</v>
+        <v>0.6492256985293041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7488827896026119</v>
+        <v>0.7429115500000463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>534</v>
@@ -3705,19 +3705,19 @@
         <v>570185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>545975</v>
+        <v>545216</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>595658</v>
+        <v>592718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7553253273174041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7232538330598408</v>
+        <v>0.7222480634653681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7890688111405987</v>
+        <v>0.7851744278613361</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>51992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39929</v>
+        <v>40113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65339</v>
+        <v>66969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2457062038825598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1886953738844379</v>
+        <v>0.1895687810419848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3087787421790949</v>
+        <v>0.3164842908192593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -3830,19 +3830,19 @@
         <v>91040</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76559</v>
+        <v>75958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106101</v>
+        <v>104908</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4145881933358128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3486445984417104</v>
+        <v>0.345904825496788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4831763191628499</v>
+        <v>0.4777426241065995</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -3851,19 +3851,19 @@
         <v>143032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123634</v>
+        <v>122624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164772</v>
+        <v>163536</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3317114157702166</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2867258749499084</v>
+        <v>0.2843831655819318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3821294888238203</v>
+        <v>0.3792634882284217</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>159611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146264</v>
+        <v>144634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171674</v>
+        <v>171490</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7542937961174402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6912212578209049</v>
+        <v>0.6835157091807406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8113046261155621</v>
+        <v>0.8104312189580152</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>123</v>
@@ -3901,19 +3901,19 @@
         <v>128551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>113490</v>
+        <v>114683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143032</v>
+        <v>143633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5854118066641872</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.51682368083715</v>
+        <v>0.5222573758934005</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6513554015582896</v>
+        <v>0.6540951745032121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -3922,19 +3922,19 @@
         <v>288162</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>266422</v>
+        <v>267658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>307560</v>
+        <v>308570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6682885842297834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6178705111761795</v>
+        <v>0.6207365117715785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7132741250500915</v>
+        <v>0.7156168344180682</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>80835</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66532</v>
+        <v>66565</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96065</v>
+        <v>98211</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2950387481425885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2428331612030775</v>
+        <v>0.2429560540737239</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3506248985090457</v>
+        <v>0.3584584300504864</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -4047,19 +4047,19 @@
         <v>110011</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94363</v>
+        <v>94542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127251</v>
+        <v>126934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3941933910800239</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3381208309968818</v>
+        <v>0.3387617297275834</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4559672945348331</v>
+        <v>0.454829302180102</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -4068,19 +4068,19 @@
         <v>190847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167985</v>
+        <v>168278</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>212395</v>
+        <v>213462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3450731912786068</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3037375054569144</v>
+        <v>0.3042661252336185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3840354426463221</v>
+        <v>0.3859642520946919</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>193146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177916</v>
+        <v>175770</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207449</v>
+        <v>207416</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7049612518574115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6493751014909543</v>
+        <v>0.6415415699495136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7571668387969225</v>
+        <v>0.7570439459262761</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>163</v>
@@ -4118,19 +4118,19 @@
         <v>169069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151829</v>
+        <v>152146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>184717</v>
+        <v>184538</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6058066089199761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5440327054651668</v>
+        <v>0.545170697819898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6618791690031182</v>
+        <v>0.6612382702724166</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>347</v>
@@ -4139,19 +4139,19 @@
         <v>362214</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340666</v>
+        <v>339599</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>385076</v>
+        <v>384783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6549268087213932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6159645573536779</v>
+        <v>0.614035747905308</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6962624945430858</v>
+        <v>0.6957338747663813</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>168044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146063</v>
+        <v>145682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>192124</v>
+        <v>192684</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2538850105995752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2206750164321012</v>
+        <v>0.2200991702906804</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.290265990896964</v>
+        <v>0.2911111359965192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -4264,19 +4264,19 @@
         <v>223159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199030</v>
+        <v>196629</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249901</v>
+        <v>248948</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3216235375867607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.286847456980406</v>
+        <v>0.2833867614970182</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.360164901414232</v>
+        <v>0.3587900361873057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>358</v>
@@ -4285,19 +4285,19 @@
         <v>391204</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>358476</v>
+        <v>360736</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>424992</v>
+        <v>429475</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2885527478423659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2644130795185132</v>
+        <v>0.2660796763606376</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3134753064316418</v>
+        <v>0.3167819800221185</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>493847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>469767</v>
+        <v>469207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>515828</v>
+        <v>516209</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7461149894004249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.709734009103036</v>
+        <v>0.7088888640034809</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7793249835678988</v>
+        <v>0.7799008297093197</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>433</v>
@@ -4335,19 +4335,19 @@
         <v>470694</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>443952</v>
+        <v>444905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>494823</v>
+        <v>497224</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6783764624132392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6398350985857679</v>
+        <v>0.6412099638126942</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.713152543019594</v>
+        <v>0.7166132385029818</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>895</v>
@@ -4356,19 +4356,19 @@
         <v>964540</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>930752</v>
+        <v>926269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>997268</v>
+        <v>995008</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.711447252157634</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6865246935683583</v>
+        <v>0.6832180199778815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7355869204814868</v>
+        <v>0.7339203236393623</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>156580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133035</v>
+        <v>134623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181744</v>
+        <v>183595</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2020337603412802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1716535045586457</v>
+        <v>0.1737025568807252</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2345034998712299</v>
+        <v>0.2368909902868349</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>206</v>
@@ -4481,19 +4481,19 @@
         <v>223107</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>194029</v>
+        <v>198971</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>249032</v>
+        <v>249821</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2714849986686053</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.23610209690531</v>
+        <v>0.2421156117472488</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3030310242353617</v>
+        <v>0.303991892908495</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -4502,19 +4502,19 @@
         <v>379687</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>346107</v>
+        <v>345216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>416237</v>
+        <v>416028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2377767936625111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2167475533410366</v>
+        <v>0.2161895003835762</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2606662879897427</v>
+        <v>0.2605352207329935</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>618438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>593274</v>
+        <v>591423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>641983</v>
+        <v>640395</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7979662396587198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7654965001287701</v>
+        <v>0.7631090097131652</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8283464954413543</v>
+        <v>0.8262974431192749</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>549</v>
@@ -4552,19 +4552,19 @@
         <v>598695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>572770</v>
+        <v>571981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>627773</v>
+        <v>622831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7285150013313947</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.696968975764638</v>
+        <v>0.6960081070915048</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.76389790309469</v>
+        <v>0.7578843882527511</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1123</v>
@@ -4573,19 +4573,19 @@
         <v>1217133</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1180583</v>
+        <v>1180792</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1250713</v>
+        <v>1251604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7622232063374889</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7393337120102573</v>
+        <v>0.7394647792670064</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7832524466589635</v>
+        <v>0.7838104996164237</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>780140</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2285881624572763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1076</v>
@@ -4698,19 +4698,19 @@
         <v>1155571</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3257664434573518</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1793</v>
@@ -4719,19 +4719,19 @@
         <v>1935711</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2781153849921248</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2632723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2582083</v>
+        <v>2578574</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2685690</v>
+        <v>2684944</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7714118375427237</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7565737674272731</v>
+        <v>0.7555456705398877</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7869316671805479</v>
+        <v>0.7867129869698759</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2212</v>
@@ -4769,19 +4769,19 @@
         <v>2391667</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2332724</v>
+        <v>2336014</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2452284</v>
+        <v>2446243</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6742335565426482</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6576171054952259</v>
+        <v>0.6585444983375633</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6913221687934981</v>
+        <v>0.6896191933788437</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4692</v>
@@ -4790,19 +4790,19 @@
         <v>5024390</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4948154</v>
+        <v>4940882</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5110046</v>
+        <v>5100897</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7218846150078752</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7109313174713394</v>
+        <v>0.7098864881601837</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.734191385313395</v>
+        <v>0.7328768227191683</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>68745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54864</v>
+        <v>53137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84140</v>
+        <v>83183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2340164454944864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1867634125193866</v>
+        <v>0.1808851492120661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2864231959580116</v>
+        <v>0.2831668720888544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -5159,19 +5159,19 @@
         <v>93700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78141</v>
+        <v>77996</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110834</v>
+        <v>109582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3245540690551795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2706622525496868</v>
+        <v>0.270158622419426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3839037788868924</v>
+        <v>0.379566796716396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -5180,19 +5180,19 @@
         <v>162445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141783</v>
+        <v>140795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184327</v>
+        <v>186269</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2788921519604978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2434200036990325</v>
+        <v>0.2417227967550335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3164606341569376</v>
+        <v>0.3197945435421191</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>225016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>209621</v>
+        <v>210578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238897</v>
+        <v>240624</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7659835545055136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7135768040419884</v>
+        <v>0.7168331279111456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8132365874806134</v>
+        <v>0.8191148507879339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -5230,19 +5230,19 @@
         <v>195003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177869</v>
+        <v>179121</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>210562</v>
+        <v>210707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6754459309448204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6160962211131076</v>
+        <v>0.6204332032836041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7293377474503131</v>
+        <v>0.7298413775805742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -5251,19 +5251,19 @@
         <v>420019</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>398137</v>
+        <v>396195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>440681</v>
+        <v>441669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7211078480395022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6835393658430624</v>
+        <v>0.6802054564578809</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7565799963009674</v>
+        <v>0.7582772032449664</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>110667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91159</v>
+        <v>93479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128167</v>
+        <v>131185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2201992231555304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1813847940928698</v>
+        <v>0.1859991765712184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2550200157521597</v>
+        <v>0.2610247955242795</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -5376,19 +5376,19 @@
         <v>181763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160210</v>
+        <v>158911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204796</v>
+        <v>203550</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3474836326727262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3062795041757721</v>
+        <v>0.30379601330608</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3915164333824638</v>
+        <v>0.3891342180893755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>268</v>
@@ -5397,19 +5397,19 @@
         <v>292430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263486</v>
+        <v>263340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323534</v>
+        <v>322636</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2851139897578794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2568947604365312</v>
+        <v>0.2567517172268549</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3154400757786887</v>
+        <v>0.3145648766371745</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>391908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374408</v>
+        <v>371390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>411416</v>
+        <v>409096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7798007768444697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7449799842478404</v>
+        <v>0.7389752044757205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8186152059071302</v>
+        <v>0.8140008234287817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -5447,19 +5447,19 @@
         <v>341321</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318288</v>
+        <v>319534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362874</v>
+        <v>364173</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6525163673272738</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6084835666175361</v>
+        <v>0.6108657819106239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6937204958242279</v>
+        <v>0.6962039866939199</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>691</v>
@@ -5468,19 +5468,19 @@
         <v>733229</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>702125</v>
+        <v>703023</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>762173</v>
+        <v>762319</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7148860102421206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6845599242213114</v>
+        <v>0.6854351233628252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7431052395634689</v>
+        <v>0.7432482827731451</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>74367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60492</v>
+        <v>60728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90409</v>
+        <v>90161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2334426001771349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1898879652724028</v>
+        <v>0.1906290266226245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2838008591336516</v>
+        <v>0.2830215138369844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -5593,19 +5593,19 @@
         <v>104253</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88151</v>
+        <v>88917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121202</v>
+        <v>121812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.309990298573652</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2621134095495253</v>
+        <v>0.2643896652400817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.360390288218371</v>
+        <v>0.3622018934538889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -5614,19 +5614,19 @@
         <v>178619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156601</v>
+        <v>155864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>201264</v>
+        <v>201644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2727534906211219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2391318009226691</v>
+        <v>0.2380055941024768</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3073317546222896</v>
+        <v>0.3079134243159052</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>244198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228156</v>
+        <v>228404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258073</v>
+        <v>257837</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7665573998228651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7161991408663502</v>
+        <v>0.7169784861630155</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8101120347275992</v>
+        <v>0.8093709733773753</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -5664,19 +5664,19 @@
         <v>232056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215107</v>
+        <v>214497</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248158</v>
+        <v>247392</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.690009701426348</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396097117816293</v>
+        <v>0.6377981065461112</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7378865904504749</v>
+        <v>0.7356103347599183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>485</v>
@@ -5685,19 +5685,19 @@
         <v>476255</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>453610</v>
+        <v>453230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>498273</v>
+        <v>499010</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.727246509378878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6926682453777105</v>
+        <v>0.6920865756840949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7608681990773309</v>
+        <v>0.7619944058975232</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>89490</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74051</v>
+        <v>73618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108203</v>
+        <v>106399</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2418891897720331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.200158140019828</v>
+        <v>0.1989870939747999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2924676978508685</v>
+        <v>0.2875938938291845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -5810,19 +5810,19 @@
         <v>136330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116454</v>
+        <v>118244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156007</v>
+        <v>157750</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3520154738429186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3006960007078706</v>
+        <v>0.3053178216730035</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4028239211799227</v>
+        <v>0.4073243785527661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>212</v>
@@ -5831,19 +5831,19 @@
         <v>225820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199738</v>
+        <v>200689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253777</v>
+        <v>251275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2982116814054219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2637680867878565</v>
+        <v>0.2650240105289762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3351312724916464</v>
+        <v>0.3318275120617622</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>280474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261761</v>
+        <v>263565</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295913</v>
+        <v>296346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7581108102279669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7075323021491315</v>
+        <v>0.7124061061708155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7998418599801721</v>
+        <v>0.8010129060251997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -5881,19 +5881,19 @@
         <v>250953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231276</v>
+        <v>229533</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270829</v>
+        <v>269039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6479845261570814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5971760788200775</v>
+        <v>0.592675621447234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6993039992921294</v>
+        <v>0.6946821783269965</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>500</v>
@@ -5902,19 +5902,19 @@
         <v>531427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>503470</v>
+        <v>505972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>557509</v>
+        <v>556558</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7017883185945781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6648687275083542</v>
+        <v>0.6681724879382378</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7362319132121435</v>
+        <v>0.7349759894710238</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>30232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21034</v>
+        <v>21617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41626</v>
+        <v>42250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1431292740551315</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09958240433950105</v>
+        <v>0.1023424403958237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1970742585327304</v>
+        <v>0.2000280216522416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -6027,19 +6027,19 @@
         <v>51750</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39689</v>
+        <v>39991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65492</v>
+        <v>65451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2367460250351692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1815694408194408</v>
+        <v>0.1829509290649474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2996129688239362</v>
+        <v>0.2994278162026531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -6048,19 +6048,19 @@
         <v>81982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66933</v>
+        <v>66437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98904</v>
+        <v>98648</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.190739846285928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1557266901200785</v>
+        <v>0.1545746538062533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2301126102878923</v>
+        <v>0.2295165716431166</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>180989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169595</v>
+        <v>168971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190187</v>
+        <v>189604</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8568707259448686</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8029257414672696</v>
+        <v>0.7999719783477584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9004175956604989</v>
+        <v>0.8976575596041763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>171</v>
@@ -6098,19 +6098,19 @@
         <v>166837</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153095</v>
+        <v>153136</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178898</v>
+        <v>178596</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7632539749648308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7003870311760622</v>
+        <v>0.7005721837973471</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8184305591805583</v>
+        <v>0.8170490709350527</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -6119,19 +6119,19 @@
         <v>347826</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330904</v>
+        <v>331160</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362875</v>
+        <v>363371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.809260153714072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7698873897121076</v>
+        <v>0.7704834283568833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8442733098799213</v>
+        <v>0.8454253461937465</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>107806</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90825</v>
+        <v>92939</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123243</v>
+        <v>122425</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4097162974724642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3451826645986353</v>
+        <v>0.3532141471808855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4683841136080959</v>
+        <v>0.4652784021775132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>124</v>
@@ -6244,19 +6244,19 @@
         <v>130377</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113056</v>
+        <v>113619</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146459</v>
+        <v>146646</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4773709011788956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4139518875679047</v>
+        <v>0.4160100643407552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5362541314104659</v>
+        <v>0.5369371617581981</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -6265,19 +6265,19 @@
         <v>238183</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>215190</v>
+        <v>215418</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>261709</v>
+        <v>261404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4441739210164131</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4012947625348351</v>
+        <v>0.4017202321403655</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4880472552257599</v>
+        <v>0.4874768326732519</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>155317</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139880</v>
+        <v>140698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172298</v>
+        <v>170184</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5902837025275358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5316158863919042</v>
+        <v>0.5347215978224868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6548173354013647</v>
+        <v>0.6467858528191144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -6315,19 +6315,19 @@
         <v>142738</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126656</v>
+        <v>126469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160059</v>
+        <v>159496</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5226290988211044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4637458685895341</v>
+        <v>0.4630628382418014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5860481124320953</v>
+        <v>0.5839899356592447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>293</v>
@@ -6336,19 +6336,19 @@
         <v>298055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274529</v>
+        <v>274834</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>321048</v>
+        <v>320820</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5558260789835869</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.51195274477424</v>
+        <v>0.512523167326748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5987052374651649</v>
+        <v>0.5982797678596344</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>150028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129943</v>
+        <v>129640</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>175240</v>
+        <v>173893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2285067555203767</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.197915003322974</v>
+        <v>0.1974537708731705</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2669070387217221</v>
+        <v>0.2648551340940157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -6461,19 +6461,19 @@
         <v>186400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164052</v>
+        <v>164451</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214616</v>
+        <v>210007</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2696387271262951</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2373120605332094</v>
+        <v>0.2378881150912312</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3104553951045503</v>
+        <v>0.3037887160896171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>302</v>
@@ -6482,19 +6482,19 @@
         <v>336428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>303815</v>
+        <v>305529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>373129</v>
+        <v>371500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2496027551186571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2254064550484255</v>
+        <v>0.2266785497396153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2768320632914444</v>
+        <v>0.2756236771359548</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>506530</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>481318</v>
+        <v>482665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>526615</v>
+        <v>526918</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7714932444796233</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7330929612782779</v>
+        <v>0.7351448659059843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8020849966770259</v>
+        <v>0.8025462291268293</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>477</v>
@@ -6532,19 +6532,19 @@
         <v>504894</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>476678</v>
+        <v>481287</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527242</v>
+        <v>526843</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7303612728737049</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6895446048954497</v>
+        <v>0.6962112839103829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7626879394667906</v>
+        <v>0.7621118849087688</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>924</v>
@@ -6553,19 +6553,19 @@
         <v>1011424</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>974723</v>
+        <v>976352</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1044037</v>
+        <v>1042323</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7503972448813429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7231679367085556</v>
+        <v>0.7243763228640454</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7745935449515745</v>
+        <v>0.7733214502603848</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>224268</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>197845</v>
+        <v>198417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>250679</v>
+        <v>249061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2880459283892055</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2541096297086717</v>
+        <v>0.2548435342643404</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.321967741678938</v>
+        <v>0.3198900116084911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>249</v>
@@ -6678,19 +6678,19 @@
         <v>279748</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250376</v>
+        <v>250278</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>310526</v>
+        <v>308922</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3386097251599398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3030575898519734</v>
+        <v>0.3029383009755806</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3758629277418088</v>
+        <v>0.3739216933865157</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>463</v>
@@ -6699,19 +6699,19 @@
         <v>504016</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>465284</v>
+        <v>469056</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>542098</v>
+        <v>544909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3140774849675259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2899416664968444</v>
+        <v>0.2922920257098802</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3378082176914088</v>
+        <v>0.3395600514292948</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>554315</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>527904</v>
+        <v>529522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>580738</v>
+        <v>580166</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7119540716107945</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.678032258321062</v>
+        <v>0.6801099883915088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7458903702913283</v>
+        <v>0.7451564657356595</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>506</v>
@@ -6749,19 +6749,19 @@
         <v>546419</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>515641</v>
+        <v>517245</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>575791</v>
+        <v>575889</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6613902748400602</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6241370722581913</v>
+        <v>0.626078306613484</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6969424101480266</v>
+        <v>0.6970616990244194</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1042</v>
@@ -6770,19 +6770,19 @@
         <v>1100734</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1062652</v>
+        <v>1059841</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1139466</v>
+        <v>1135694</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6859225150324741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6621917823085912</v>
+        <v>0.6604399485707054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7100583335031555</v>
+        <v>0.7077079742901199</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>855602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2520664466299309</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1077</v>
@@ -6895,19 +6895,19 @@
         <v>1164320</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3284823737676889</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1893</v>
@@ -6916,19 +6916,19 @@
         <v>2019921</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2911014178871146</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2538748</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2485000</v>
+        <v>2489849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2584914</v>
+        <v>2590828</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7479335533700691</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7320988397550976</v>
+        <v>0.7335274039446937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7615344140505342</v>
+        <v>0.7632766943750671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2261</v>
@@ -6966,19 +6966,19 @@
         <v>2380222</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2323051</v>
+        <v>2326045</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2434162</v>
+        <v>2439965</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6715176262323111</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6553881684065064</v>
+        <v>0.6562330096962029</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6867352550194089</v>
+        <v>0.6883723815285387</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4676</v>
@@ -6987,19 +6987,19 @@
         <v>4918971</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4842091</v>
+        <v>4838955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4996027</v>
+        <v>4996991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7088985821128855</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6978190064747887</v>
+        <v>0.6973670428545508</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.720003618000835</v>
+        <v>0.7201425128028914</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>65193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52538</v>
+        <v>52001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80443</v>
+        <v>80897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2044646567978357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1647750364613712</v>
+        <v>0.1630917469300334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2522938369748883</v>
+        <v>0.2537202232701033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -7356,19 +7356,19 @@
         <v>81380</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69500</v>
+        <v>69453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95564</v>
+        <v>94221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2582871288121696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2205823277002131</v>
+        <v>0.2204335311076724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3033041306080759</v>
+        <v>0.2990419176841493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -7377,19 +7377,19 @@
         <v>146572</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128128</v>
+        <v>127691</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166514</v>
+        <v>168324</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2312158190490949</v>
+        <v>0.2312158190490948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2021198124134607</v>
+        <v>0.2014300565184924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2626738798091238</v>
+        <v>0.2655287213038064</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>253652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238402</v>
+        <v>237948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266307</v>
+        <v>266844</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7955353432021643</v>
+        <v>0.7955353432021645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7477061630251118</v>
+        <v>0.7462797767298968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8352249635386287</v>
+        <v>0.8369082530699666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>400</v>
@@ -7427,19 +7427,19 @@
         <v>233695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219511</v>
+        <v>220854</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245575</v>
+        <v>245622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7417128711878304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6966958693919242</v>
+        <v>0.7009580823158506</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7794176722997871</v>
+        <v>0.7795664688923274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>659</v>
@@ -7448,19 +7448,19 @@
         <v>487348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>467406</v>
+        <v>465596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>505792</v>
+        <v>506229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7687841809509052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7373261201908761</v>
+        <v>0.7344712786961934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7978801875865388</v>
+        <v>0.7985699434815074</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>84887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67129</v>
+        <v>66036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105038</v>
+        <v>104450</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.160243022458671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.126721028691479</v>
+        <v>0.1246568231703742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1982824443623042</v>
+        <v>0.1971726947025519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -7573,19 +7573,19 @@
         <v>101325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86259</v>
+        <v>86500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119339</v>
+        <v>119364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1854092773714678</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1578399530636965</v>
+        <v>0.1582825089839107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2183716592508768</v>
+        <v>0.2184184818887436</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>205</v>
@@ -7594,19 +7594,19 @@
         <v>186213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162477</v>
+        <v>159280</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210661</v>
+        <v>213799</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1730220227673833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1509675868883355</v>
+        <v>0.1479969407580988</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1957387493097024</v>
+        <v>0.1986546503405832</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>444854</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424703</v>
+        <v>425291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>462612</v>
+        <v>463705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8397569775413288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.801717555637696</v>
+        <v>0.8028273052974481</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8732789713085212</v>
+        <v>0.8753431768296258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>582</v>
@@ -7644,19 +7644,19 @@
         <v>445169</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>427155</v>
+        <v>427130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460235</v>
+        <v>459994</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8145907226285323</v>
+        <v>0.8145907226285324</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7816283407491232</v>
+        <v>0.7815815181112564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8421600469363035</v>
+        <v>0.8417174910160892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -7665,19 +7665,19 @@
         <v>890023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865575</v>
+        <v>862437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>913759</v>
+        <v>916956</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8269779772326168</v>
+        <v>0.8269779772326167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8042612506902976</v>
+        <v>0.801345349659417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8490324131116647</v>
+        <v>0.8520030592419011</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>64050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50736</v>
+        <v>51922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77650</v>
+        <v>79433</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2026943501252355</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.160559880143213</v>
+        <v>0.1643121973884437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2457318560382099</v>
+        <v>0.2513749773096826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -7790,19 +7790,19 @@
         <v>78261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66748</v>
+        <v>66223</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92943</v>
+        <v>91716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2195986131140266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1872940879329001</v>
+        <v>0.1858216156449884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.260797909142773</v>
+        <v>0.2573533517606109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -7811,19 +7811,19 @@
         <v>142311</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126558</v>
+        <v>124347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162589</v>
+        <v>161361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2116541805373184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1882247936347289</v>
+        <v>0.184937355730129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2418129387028619</v>
+        <v>0.2399864774312395</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>251943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238343</v>
+        <v>236560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265257</v>
+        <v>264071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7973056498747644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7542681439617902</v>
+        <v>0.7486250226903169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8394401198567871</v>
+        <v>0.8356878026115558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -7861,19 +7861,19 @@
         <v>278120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>263438</v>
+        <v>264665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289633</v>
+        <v>290158</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7804013868859735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7392020908572271</v>
+        <v>0.742646648239389</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8127059120671</v>
+        <v>0.8141783843550116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>700</v>
@@ -7882,19 +7882,19 @@
         <v>530064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509786</v>
+        <v>511014</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545817</v>
+        <v>548028</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7883458194626819</v>
+        <v>0.7883458194626818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7581870612971382</v>
+        <v>0.7600135225687604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8117752063652712</v>
+        <v>0.8150626442698713</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>84027</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65451</v>
+        <v>66521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104796</v>
+        <v>103882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2251857308425979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.175403380211845</v>
+        <v>0.1782708304031767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2808444132861724</v>
+        <v>0.2783961220235595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -8007,19 +8007,19 @@
         <v>113332</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98193</v>
+        <v>96660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132709</v>
+        <v>130672</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2688529268448952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2329403969834782</v>
+        <v>0.2293014867271168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3148206844085295</v>
+        <v>0.3099879590610952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -8028,19 +8028,19 @@
         <v>197359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171759</v>
+        <v>174744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223583</v>
+        <v>224274</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2483489334941888</v>
+        <v>0.2483489334941887</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2161345726429131</v>
+        <v>0.2198912749016047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2813475609080731</v>
+        <v>0.2822173425405258</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>289118</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268349</v>
+        <v>269263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307694</v>
+        <v>306624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7748142691574023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7191555867138273</v>
+        <v>0.7216038779764407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8245966197881549</v>
+        <v>0.8217291695968236</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>432</v>
@@ -8078,19 +8078,19 @@
         <v>308207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288830</v>
+        <v>290867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>323346</v>
+        <v>324879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7311470731551049</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6851793155914701</v>
+        <v>0.6900120409389049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7670596030165217</v>
+        <v>0.7706985132728832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>649</v>
@@ -8099,19 +8099,19 @@
         <v>597326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>571102</v>
+        <v>570411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>622926</v>
+        <v>619941</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7516510665058114</v>
+        <v>0.7516510665058113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7186524390919268</v>
+        <v>0.7177826574594741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7838654273570864</v>
+        <v>0.7801087250983954</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>19490</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13140</v>
+        <v>12836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28478</v>
+        <v>27670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09476450061370426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06389013272616523</v>
+        <v>0.06240981769944298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1384662094382894</v>
+        <v>0.1345404309157129</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -8224,19 +8224,19 @@
         <v>29547</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22840</v>
+        <v>23034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37586</v>
+        <v>38028</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1305449732963363</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1009129959534928</v>
+        <v>0.1017704759633169</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1660617762734397</v>
+        <v>0.1680171206024955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -8245,19 +8245,19 @@
         <v>49037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40364</v>
+        <v>39771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60704</v>
+        <v>61103</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1135107892409478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09343528015131472</v>
+        <v>0.09206158845701243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1405192595738087</v>
+        <v>0.1414419394783263</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>186175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177187</v>
+        <v>177995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192525</v>
+        <v>192829</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9052354993862956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8615337905617105</v>
+        <v>0.8654595690842868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9361098672738348</v>
+        <v>0.9375901823005571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>425</v>
@@ -8295,19 +8295,19 @@
         <v>196789</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188750</v>
+        <v>188308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203496</v>
+        <v>203302</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8694550267036637</v>
+        <v>0.8694550267036636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8339382237265602</v>
+        <v>0.8319828793975041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8990870040465071</v>
+        <v>0.8982295240366831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>677</v>
@@ -8316,19 +8316,19 @@
         <v>382964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371297</v>
+        <v>370898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391637</v>
+        <v>392230</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8864892107590522</v>
+        <v>0.8864892107590521</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8594807404261912</v>
+        <v>0.8585580605216733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9065647198486853</v>
+        <v>0.9079384115429876</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>51147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40870</v>
+        <v>40662</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62844</v>
+        <v>62342</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1889387126904356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1509760565166898</v>
+        <v>0.1502064274890263</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2321483869739742</v>
+        <v>0.2302945886837286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -8441,19 +8441,19 @@
         <v>59675</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50675</v>
+        <v>49698</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70843</v>
+        <v>70691</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2262552899425029</v>
+        <v>0.2262552899425028</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1921340266589853</v>
+        <v>0.1884293070998628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2685989162473785</v>
+        <v>0.2680226100041215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>191</v>
@@ -8462,19 +8462,19 @@
         <v>110822</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96603</v>
+        <v>96558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126485</v>
+        <v>127957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2073541383457929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1807505324350494</v>
+        <v>0.1806650148325413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2366607570684655</v>
+        <v>0.2394149010138521</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>219560</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207863</v>
+        <v>208365</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229837</v>
+        <v>230045</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8110612873095644</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7678516130260261</v>
+        <v>0.7697054113162715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8490239434833102</v>
+        <v>0.8497935725109736</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>348</v>
@@ -8512,19 +8512,19 @@
         <v>204075</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192907</v>
+        <v>193059</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213075</v>
+        <v>214052</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7737447100574972</v>
+        <v>0.773744710057497</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7314010837526215</v>
+        <v>0.7319773899958785</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8078659733410146</v>
+        <v>0.8115706929001372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -8533,19 +8533,19 @@
         <v>423635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>407972</v>
+        <v>406500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>437854</v>
+        <v>437899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7926458616542071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7633392429315345</v>
+        <v>0.7605850989861469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8192494675649505</v>
+        <v>0.8193349851674578</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>162899</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>137681</v>
+        <v>137757</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190349</v>
+        <v>189763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2263473684275425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1913063103982413</v>
+        <v>0.1914122984101548</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2644885035855835</v>
+        <v>0.2636747207510579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>313</v>
@@ -8658,19 +8658,19 @@
         <v>241894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219060</v>
+        <v>217201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>267563</v>
+        <v>267606</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3137459694108006</v>
+        <v>0.3137459694108007</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2841293081945984</v>
+        <v>0.2817183069356413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3470406598154022</v>
+        <v>0.3470952894336074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>455</v>
@@ -8679,19 +8679,19 @@
         <v>404793</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>372616</v>
+        <v>371078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>439112</v>
+        <v>439800</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2715505071377179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2499650067848905</v>
+        <v>0.2489334322475479</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2945730899818659</v>
+        <v>0.2950344376169308</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>556788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529338</v>
+        <v>529924</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>582006</v>
+        <v>581930</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7736526315724574</v>
+        <v>0.7736526315724577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7355114964144167</v>
+        <v>0.7363252792489421</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8086936896017587</v>
+        <v>0.8085877015898452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>646</v>
@@ -8729,19 +8729,19 @@
         <v>529092</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>503423</v>
+        <v>503380</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>551926</v>
+        <v>553785</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6862540305891994</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6529593401845978</v>
+        <v>0.6529047105663927</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7158706918054014</v>
+        <v>0.7182816930643587</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1103</v>
@@ -8750,19 +8750,19 @@
         <v>1085880</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1051561</v>
+        <v>1050873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1118057</v>
+        <v>1119595</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7284494928622821</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7054269100181342</v>
+        <v>0.7049655623830691</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7500349932151096</v>
+        <v>0.7510665677524521</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>158931</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137198</v>
+        <v>134629</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182918</v>
+        <v>182761</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1993109626889245</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1720561576649762</v>
+        <v>0.1688346289994769</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.229391738395554</v>
+        <v>0.2291947333100562</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>304</v>
@@ -8875,19 +8875,19 @@
         <v>221206</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199737</v>
+        <v>200311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>245238</v>
+        <v>243162</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2664931213621616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2406279690554878</v>
+        <v>0.2413195267241219</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2954451807590653</v>
+        <v>0.292943852611915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>475</v>
@@ -8896,19 +8896,19 @@
         <v>380138</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>349167</v>
+        <v>350681</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>413191</v>
+        <v>413011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2335761475465737</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2145458895178678</v>
+        <v>0.215476527292484</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2538859132215829</v>
+        <v>0.2537752284994591</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>638473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>614486</v>
+        <v>614643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>660206</v>
+        <v>662775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8006890373110754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7706082616044458</v>
+        <v>0.770805266689944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8279438423350238</v>
+        <v>0.8311653710005231</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>757</v>
@@ -8946,19 +8946,19 @@
         <v>608858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>584826</v>
+        <v>586902</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>630327</v>
+        <v>629753</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7335068786378381</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7045548192409347</v>
+        <v>0.7070561473880851</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7593720309445123</v>
+        <v>0.7586804732758781</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1347</v>
@@ -8967,19 +8967,19 @@
         <v>1247330</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1214277</v>
+        <v>1214457</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1278301</v>
+        <v>1276787</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7664238524534264</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7461140867784172</v>
+        <v>0.746224771500541</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7854541104821323</v>
+        <v>0.7845234727075161</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>690624</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1955784779193475</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1351</v>
@@ -9092,19 +9092,19 @@
         <v>926620</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2483818544668358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2063</v>
@@ -9113,19 +9113,19 @@
         <v>1617244</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2227052603626824</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2840564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2791667</v>
+        <v>2783457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2890431</v>
+        <v>2885688</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8044215220806527</v>
+        <v>0.8044215220806525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7905744014192768</v>
+        <v>0.788249399118221</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8185435389360294</v>
+        <v>0.8172004671496091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4006</v>
@@ -9163,19 +9163,19 @@
         <v>2804006</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2757306</v>
+        <v>2752683</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2847183</v>
+        <v>2849376</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7516181455331641</v>
+        <v>0.7516181455331642</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7390999718620542</v>
+        <v>0.7378608558351901</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7631918749978994</v>
+        <v>0.7637796315627151</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6668</v>
@@ -9184,19 +9184,19 @@
         <v>5644570</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5580233</v>
+        <v>5570678</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5711943</v>
+        <v>5710876</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7772947396373175</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7684351489894958</v>
+        <v>0.7671193868023444</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7865724074925319</v>
+        <v>0.7864254944634035</v>
       </c>
     </row>
     <row r="30">
